--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1856054.815463138</v>
+        <v>-1858732.700861998</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>325.9515015691442</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.22070194930996</v>
+        <v>73.09793466719586</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>86.68415484895566</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>135.8457013705059</v>
       </c>
       <c r="U4" t="n">
-        <v>137.6441564454822</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>157.1809570966928</v>
       </c>
       <c r="W5" t="n">
-        <v>194.7015903975657</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>37.27806154573701</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>126.2862937996827</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>280.2361184978853</v>
+        <v>87.65766345024372</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>74.02842076295256</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>168.9276255024284</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.19779014108431</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>200.8913644505275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>68.07731664460631</v>
+        <v>37.40501058442996</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>46.13809394730832</v>
       </c>
     </row>
     <row r="23">
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>36.21070476472222</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2719,7 +2719,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3016,7 +3016,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600558</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
         <v>142.9621736065881</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352485</v>
@@ -3481,7 +3481,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
         <v>262.2383508445512</v>
@@ -3490,7 +3490,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652576</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808191</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T46" t="n">
         <v>193.1208028352485</v>
@@ -4192,7 +4192,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
         <v>262.2383508445512</v>
@@ -4201,7 +4201,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472.3398332255028</v>
+        <v>494.045601152047</v>
       </c>
       <c r="C2" t="n">
-        <v>143.0958922465692</v>
+        <v>125.0830842116353</v>
       </c>
       <c r="D2" t="n">
-        <v>143.0958922465692</v>
+        <v>125.0830842116353</v>
       </c>
       <c r="E2" t="n">
-        <v>143.0958922465692</v>
+        <v>125.0830842116353</v>
       </c>
       <c r="F2" t="n">
-        <v>143.0958922465692</v>
+        <v>125.0830842116353</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4334,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W2" t="n">
-        <v>1622.544763526516</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X2" t="n">
-        <v>1249.079005265436</v>
+        <v>1270.784773191981</v>
       </c>
       <c r="Y2" t="n">
-        <v>858.9396732896246</v>
+        <v>880.6454412161688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143502</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>884.9085321458221</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2238.100841080695</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1758.982323005929</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C4" t="n">
-        <v>1590.046140078022</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D4" t="n">
-        <v>1439.929500665686</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1200.016085577713</v>
       </c>
       <c r="U4" t="n">
-        <v>2423.304826940072</v>
+        <v>910.8977480815505</v>
       </c>
       <c r="V4" t="n">
-        <v>2168.620338734186</v>
+        <v>656.2132598756637</v>
       </c>
       <c r="W4" t="n">
-        <v>2168.620338734186</v>
+        <v>366.796089838703</v>
       </c>
       <c r="X4" t="n">
-        <v>1940.630787836168</v>
+        <v>138.8065389406856</v>
       </c>
       <c r="Y4" t="n">
-        <v>1940.630787836168</v>
+        <v>138.8065389406856</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>759.7040301531877</v>
+        <v>1128.666547093599</v>
       </c>
       <c r="C5" t="n">
         <v>759.7040301531877</v>
@@ -4565,16 +4565,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4601,16 +4601,16 @@
         <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2278.871477394613</v>
       </c>
       <c r="W5" t="n">
-        <v>1909.908960454201</v>
+        <v>2278.871477394613</v>
       </c>
       <c r="X5" t="n">
-        <v>1536.443202193121</v>
+        <v>1905.405719133533</v>
       </c>
       <c r="Y5" t="n">
-        <v>1146.303870217309</v>
+        <v>1515.266387157721</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735142</v>
+        <v>483.0441129489469</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049859</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>869.3659810263853</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C7" t="n">
-        <v>700.4297980984784</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D7" t="n">
-        <v>700.4297980984784</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>552.5167045160853</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>405.6267570181749</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>237.6402923264535</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>88.90139418995969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269233</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269233</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063346</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>869.3659810263853</v>
+        <v>477.664237045805</v>
       </c>
       <c r="X7" t="n">
-        <v>869.3659810263853</v>
+        <v>477.664237045805</v>
       </c>
       <c r="Y7" t="n">
-        <v>869.3659810263853</v>
+        <v>350.1023241168326</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>3042.53903524767</v>
+        <v>2777.554502873044</v>
       </c>
       <c r="W8" t="n">
-        <v>2689.770379977556</v>
+        <v>2424.78584760293</v>
       </c>
       <c r="X8" t="n">
-        <v>2689.770379977556</v>
+        <v>2051.32008934185</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="9">
@@ -4872,28 +4872,28 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9570515689412</v>
+        <v>678.6720730524786</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0208686410343</v>
+        <v>509.7358901245717</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9042292286986</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E10" t="n">
-        <v>308.9911356463055</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V10" t="n">
-        <v>1224.739181610489</v>
+        <v>1377.727258817696</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.739181610489</v>
+        <v>1088.310088780736</v>
       </c>
       <c r="X10" t="n">
-        <v>996.7496307124713</v>
+        <v>860.3205378827183</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.9570515689412</v>
+        <v>860.3205378827183</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2311.15241352498</v>
+        <v>2342.134540858491</v>
       </c>
       <c r="T16" t="n">
-        <v>2091.550948547921</v>
+        <v>2122.533075881433</v>
       </c>
       <c r="U16" t="n">
-        <v>2091.550948547921</v>
+        <v>1833.45784922563</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342034</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407056</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263526</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="17">
@@ -5504,16 +5504,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5522,13 +5522,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,16 +5756,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
         <v>402.7245934908939</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>869.6905094135296</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115003</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6403,28 +6403,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6461,10 +6461,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6473,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,25 +6540,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6634,10 +6634,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
         <v>2639.297491717215</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6737,10 +6737,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,28 +6856,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954145</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380719</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311314</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,16 +7011,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7114,7 +7114,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319327</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,13 +7591,13 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7734,19 +7734,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380729</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.4490126143853</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>186.5911984019047</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515139</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>386.327000823644</v>
+        <v>338.4497681057582</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,10 +22604,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>93.14782533298164</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,13 +22717,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>110.2232578818469</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>24.81829093850968</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>112.9489693570383</v>
+        <v>143.6212754172146</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>172.4465594047865</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>110.2232578818469</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-5.562217481057792e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1070633.390043242</v>
+        <v>1070633.390043243</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1319542.496041421</v>
+        <v>1319542.49604142</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359153</v>
+        <v>81152.2779035916</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26332,13 +26332,13 @@
         <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
         <v>102630.2212330355</v>
@@ -26350,7 +26350,7 @@
         <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
         <v>102630.2212330355</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>187032.8958036143</v>
+        <v>187032.8958036144</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551185</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37450.91375005658</v>
+        <v>37450.91375005661</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309559</v>
+        <v>87914.29116309555</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>8727.256391744282</v>
       </c>
-      <c r="G4" t="n">
-        <v>8727.256391744289</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8727.256391744304</v>
-      </c>
       <c r="I4" t="n">
-        <v>8727.256391744306</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483775</v>
       </c>
       <c r="K4" t="n">
         <v>16718.11565483775</v>
@@ -26448,16 +26448,16 @@
         <v>16718.11565483775</v>
       </c>
       <c r="M4" t="n">
+        <v>16718.11565483776</v>
+      </c>
+      <c r="N4" t="n">
         <v>16718.11565483777</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16718.11565483775</v>
       </c>
       <c r="O4" t="n">
         <v>16718.11565483775</v>
       </c>
       <c r="P4" t="n">
-        <v>16718.11565483776</v>
+        <v>16718.11565483777</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1163988.19186223</v>
+        <v>-1164417.750728818</v>
       </c>
       <c r="C6" t="n">
         <v>-125829.6881837924</v>
       </c>
       <c r="D6" t="n">
-        <v>-285845.1509317912</v>
+        <v>-285845.1509317914</v>
       </c>
       <c r="E6" t="n">
-        <v>-334368.9230617558</v>
+        <v>-334403.6609871915</v>
       </c>
       <c r="F6" t="n">
-        <v>-8956.461254400623</v>
+        <v>-8991.199179836331</v>
       </c>
       <c r="G6" t="n">
-        <v>-8956.461254400609</v>
+        <v>-8991.199179836316</v>
       </c>
       <c r="H6" t="n">
-        <v>-8956.461254400594</v>
+        <v>-8991.199179836287</v>
       </c>
       <c r="I6" t="n">
-        <v>-8956.461254400667</v>
+        <v>-8991.199179836316</v>
       </c>
       <c r="J6" t="n">
-        <v>-204284.9060793319</v>
+        <v>-204284.9060793321</v>
       </c>
       <c r="K6" t="n">
-        <v>-17252.01027571755</v>
+        <v>-17252.01027571771</v>
       </c>
       <c r="L6" t="n">
-        <v>-65545.98028390839</v>
+        <v>-65545.98028390842</v>
       </c>
       <c r="M6" t="n">
-        <v>-102307.0382112295</v>
+        <v>-102307.0382112296</v>
       </c>
       <c r="N6" t="n">
-        <v>-17252.01027571769</v>
+        <v>-17252.01027571771</v>
       </c>
       <c r="O6" t="n">
-        <v>-36679.72826934949</v>
+        <v>-36679.72826934951</v>
       </c>
       <c r="P6" t="n">
-        <v>-17252.01027571771</v>
+        <v>-17252.01027571777</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.039613253960852e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>39.32139020186332</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>84.90299462670603</v>
       </c>
       <c r="U4" t="n">
-        <v>148.5829976757184</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>170.5713013734421</v>
       </c>
       <c r="W5" t="n">
-        <v>154.5393783198473</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>67.51853365816356</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>92.29835955241214</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>47.51613997224956</v>
+        <v>240.0945950198912</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>71.39262725997868</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>83.21001782139956</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29809,7 +29809,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
   </sheetData>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31850,16 +31850,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>403.852496713802</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M18" t="n">
-        <v>169.2687847673337</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>613.2529048371032</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33035,7 +33035,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,28 +33260,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>397.4049812900382</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,25 +34208,25 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215496</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,13 +34793,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>302.9297349452399</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>373.1786946453895</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750462</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35498,16 +35498,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>272.5107846304687</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M18" t="n">
-        <v>27.13475084531539</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>259.5635423156792</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016746</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
